--- a/webapps/ROOT/image/24.xlsx
+++ b/webapps/ROOT/image/24.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,15 +139,48 @@
   </si>
   <si>
     <t xml:space="preserve">
-null:null  null  null  
-null:null  
-null:null  null  </t>
+null:null  null  null  null  null  null  
+null:null  null  
+null:null  null  null  </t>
   </si>
   <si>
     <t>TTCq1W</t>
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>朱明</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>投中</t>
+  </si>
+  <si>
+    <t>18616199003</t>
+  </si>
+  <si>
+    <t>123@SOHU.COM</t>
+  </si>
+  <si>
+    <t>2019-09-12 11:17:07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+自定义选项标题八九十一二三四五六七八九十一二三四五六七八九十一二三四五六:测试选项限制36字十一二三四五六七八九十一二三四五六七八九十一二三四五六  选项2  选项20测试  
+您的身份:GP  
+参会权益:主会场  午餐  </t>
+  </si>
+  <si>
+    <t>lGG5vO</t>
+  </si>
+  <si>
+    <t>fengxw</t>
   </si>
   <si>
     <t>88</t>
@@ -169,9 +202,6 @@
   </si>
   <si>
     <t>1GH0HY</t>
-  </si>
-  <si>
-    <t>fengxw</t>
   </si>
   <si>
     <t>89</t>
@@ -681,22 +711,22 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -705,18 +735,18 @@
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -725,36 +755,36 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -763,28 +793,66 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/webapps/ROOT/image/24.xlsx
+++ b/webapps/ROOT/image/24.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,8 +171,11 @@
     <t>2019-09-12 11:17:07</t>
   </si>
   <si>
+    <t>已审核</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-自定义选项标题八九十一二三四五六七八九十一二三四五六七八九十一二三四五六:测试选项限制36字十一二三四五六七八九十一二三四五六七八九十一二三四五六  选项2  选项20测试  
+自定义选项标题八九十一二三四五六七八九十一二三四五六七八九十一二三四五六:测试选项限制36字十一二三四五六七八九十一二三四五六七八九十一二三四五六  选项2  选项19  选项20测试  
 您的身份:GP  
 参会权益:主会场  午餐  </t>
   </si>
@@ -726,27 +729,27 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -755,16 +758,16 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -773,18 +776,18 @@
         <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -793,36 +796,36 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -831,28 +834,28 @@
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
         <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/webapps/ROOT/image/24.xlsx
+++ b/webapps/ROOT/image/24.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,37 +120,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>方杨</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>赵杰</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>15011540723</t>
-  </si>
-  <si>
-    <t>2019-09-11 15:20:15</t>
+    <t>18522279156</t>
+  </si>
+  <si>
+    <t>2019-09-11 16:32:27</t>
   </si>
   <si>
     <t>待审核</t>
   </si>
   <si>
     <t xml:space="preserve">
-null:null  null  null  null  null  null  
-null:null  null  
-null:null  null  null  </t>
-  </si>
-  <si>
-    <t>TTCq1W</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>87</t>
+自定义选项标题八九十一二三四五六七八九十一二三四五六七八九十一二三四五六:选项2  选项3  选项4  选项6  选项7  
+您的身份:GP  
+参会权益:分会场  午餐  </t>
+  </si>
+  <si>
+    <t>aMIUdb</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>程胖胖</t>
+  </si>
+  <si>
+    <t>15652934673</t>
+  </si>
+  <si>
+    <t>2019-09-11 17:11:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+自定义选项标题八九十一二三四五六七八九十一二三四五六七八九十一二三四五六:测试选项限制36字十一二三四五六七八九十一二三四五六七八九十一二三四五六  选项2  选项3  选项4  
+您的身份:GP  
+参会权益:主会场  午餐  </t>
+  </si>
+  <si>
+    <t>2019-09-11 17:55:34</t>
+  </si>
+  <si>
+    <t>5nKsdm</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>李陪熊</t>
+  </si>
+  <si>
+    <t>17611001135</t>
+  </si>
+  <si>
+    <t>2019-09-11 18:10:37</t>
+  </si>
+  <si>
+    <t>已审核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+自定义选项标题八九十一二三四五六七八九十一二三四五六七八九十一二三四五六:选项2  选项3  选项13  选项15  选项16  选项18  
+您的身份:GP  
+参会权益:主会场  午餐  </t>
+  </si>
+  <si>
+    <t>pvaskC</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>朱明</t>
@@ -169,9 +214,6 @@
   </si>
   <si>
     <t>2019-09-12 11:17:07</t>
-  </si>
-  <si>
-    <t>已审核</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -181,78 +223,6 @@
   </si>
   <si>
     <t>lGG5vO</t>
-  </si>
-  <si>
-    <t>fengxw</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>最漂酿的申达</t>
-  </si>
-  <si>
-    <t>17611579881</t>
-  </si>
-  <si>
-    <t>2019-09-11 15:25:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-自定义选项标题八九十一二三四五六七八九十一二三四五六七八九十一二三四五六:测试选项限制36字十一二三四五六七八九十一二三四五六七八九十一二三四五六  选项3  选项4  选项15  选项16  
-您的身份:GP  
-参会权益:分会场  </t>
-  </si>
-  <si>
-    <t>1GH0HY</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>程胖胖</t>
-  </si>
-  <si>
-    <t>15652934673</t>
-  </si>
-  <si>
-    <t>2019-09-11 17:11:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-自定义选项标题八九十一二三四五六七八九十一二三四五六七八九十一二三四五六:测试选项限制36字十一二三四五六七八九十一二三四五六七八九十一二三四五六  选项2  选项3  选项4  
-您的身份:GP  
-参会权益:主会场  午餐  </t>
-  </si>
-  <si>
-    <t>2019-09-11 17:55:34</t>
-  </si>
-  <si>
-    <t>5nKsdm</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>李陪熊</t>
-  </si>
-  <si>
-    <t>17611001135</t>
-  </si>
-  <si>
-    <t>2019-09-11 18:10:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-自定义选项标题八九十一二三四五六七八九十一二三四五六七八九十一二三四五六:选项2  选项3  选项13  选项15  选项16  选项18  
-您的身份:GP  
-参会权益:主会场  午餐  </t>
-  </si>
-  <si>
-    <t>pvaskC</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -702,160 +672,110 @@
       <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
         <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
         <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
